--- a/medicine/Enfance/Christel_Mouchard/Christel_Mouchard.xlsx
+++ b/medicine/Enfance/Christel_Mouchard/Christel_Mouchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christel Mouchard, née en 1954, est une écrivaine française qui s'intéresse plus particulièrement à l'histoire des voyages au féminin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christel Mouchard est une romancière, éditrice et auteure. Longtemps rewriter, elle a écrit une dizaine de livres sur le thème de l’aventure – surtout de l’aventure au féminin, dont sept livres jeunesse. 
 Parmi ses dernières publications : Gertrude Bell, archéologue, aventurière, agent secret (Tallandier, 2015) et en littérature de jeunesse, L’Apache aux yeux bleus (Flammarion 2015) ou encore Jeanne Barret - Aventurière des mers, exploratrice et botaniste en 2020. 
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elles ont conquis le monde - Les Grandes aventurières - 1850-1950, en collaboration avec Alexandra Lapierre, éd. Arthaud 2006,  (ISBN 2-7003-9671-5).
 [Aventurières] en crinoline, Seuil, 1987.
@@ -553,12 +569,80 @@
 La Reine Antilope, Robert Laffont, 2000.
 Doña Isabel - La véritable et très mystérieuse histoire d'une voyageuse perdue dans la forêt des Amazones, Robert Laffont, 2011.
 Gertrude Bell, archéologue, aventurière, agent secret, Tallandier, 2015, 332 pages - Prix spécial du jury Simone-Veil 2016.
-Jeanne Barret - Aventurière des mers, exploratrice et botaniste, Tallandier, 2020.
-Traductions et présentations
-Le Dernier journal de Livingstone, Arléa, 1994.
-Je suis une mal-blanchie-Les Mémoires de Mary Seacole, Phébus, 1992.
-Littérature jeunesse
-La princesse africaine, sur la route de Zimbabouè, 2006 (jeunesse).
+Jeanne Barret - Aventurière des mers, exploratrice et botaniste, Tallandier, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christel_Mouchard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christel_Mouchard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions et présentations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Dernier journal de Livingstone, Arléa, 1994.
+Je suis une mal-blanchie-Les Mémoires de Mary Seacole, Phébus, 1992.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christel_Mouchard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christel_Mouchard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La princesse africaine, sur la route de Zimbabouè, 2006 (jeunesse).
 La princesse africaine, Prisonnière à Zanzibar, 2007 (jeunesse).
 Le secret de la dame de jade, 2009 (jeunesse) - Prix Peep.
 Devi, bandit aux yeux de fille, 2010 (jeunesse) - Prix Gayant Lecture 2012 - Prix Azimut 2012.
